--- a/dados/Microrregioes_Mesorregioes-RJ.xlsx
+++ b/dados/Microrregioes_Mesorregioes-RJ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos (D)\UFJF\6-PERIODO\TCCI\DADOS IBGE\ProjIBGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos (D)\UFJF\6-PERIODO\TCCI\DADOS IBGE\ProjIBGE\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A867D4BC-8D0C-4488-83A8-A4DE18EE8DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C338B8-A99D-45FB-89CF-4AC409BCD0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{89B262B7-DBFD-4FD6-9D93-B108B793C343}"/>
   </bookViews>
@@ -378,7 +378,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,30 +387,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="1" tint="0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14996795556505021"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -418,17 +406,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469F8990-FA2F-4989-9C77-23D5D8FE688F}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -757,1025 +862,1025 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="7" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="A64" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="A65" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="4" t="s">
+      <c r="A66" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B67" s="4" t="s">
+      <c r="A67" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="A68" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="4" t="s">
+      <c r="A69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" s="4" t="s">
+      <c r="A70" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="A71" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="A72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="A73" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B74" s="4" t="s">
+      <c r="A74" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="A75" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="A76" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="A77" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B78" s="4" t="s">
+      <c r="A78" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B78" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="A79" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="A80" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="A82" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="A83" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B84" s="4" t="s">
+      <c r="A84" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B85" s="4" t="s">
+      <c r="A85" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B86" s="4" t="s">
+      <c r="A86" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B87" s="4" t="s">
+      <c r="A87" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B88" s="4" t="s">
+      <c r="A88" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B89" s="4" t="s">
+      <c r="A89" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B90" s="4" t="s">
+      <c r="A90" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B91" s="4" t="s">
+      <c r="A91" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B92" s="4" t="s">
+      <c r="A92" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B93" s="4" t="s">
+      <c r="A93" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="11" t="s">
         <v>89</v>
       </c>
     </row>
